--- a/eform/public/files/template/data_detailall.xlsx
+++ b/eform/public/files/template/data_detailall.xlsx
@@ -1389,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:FC4"/>
+  <dimension ref="A1:FC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,961 +1527,961 @@
     <col min="159" max="159" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:159" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:159" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="DX3" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DY3" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="EI3" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="FB3" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="FC3" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:159" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="2" spans="1:159" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="AU4" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="BB4" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="BC4" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="BF4" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BG2" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="9" t="s">
+      <c r="BH2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="BI4" s="9" t="s">
+      <c r="BI2" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="BJ4" s="9" t="s">
+      <c r="BJ2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="BK4" s="9" t="s">
+      <c r="BK2" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="9" t="s">
+      <c r="BL2" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="9" t="s">
+      <c r="BM2" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="BN4" s="9" t="s">
+      <c r="BN2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO4" s="9" t="s">
+      <c r="BO2" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="BP4" s="9" t="s">
+      <c r="BP2" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="BQ4" s="9" t="s">
+      <c r="BQ2" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="BR4" s="9" t="s">
+      <c r="BR2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="BS4" s="9" t="s">
+      <c r="BS2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="BT4" s="9" t="s">
+      <c r="BT2" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="BU4" s="9" t="s">
+      <c r="BU2" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="BV4" s="9" t="s">
+      <c r="BV2" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="BW4" s="9" t="s">
+      <c r="BW2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="BX4" s="9" t="s">
+      <c r="BX2" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="BY4" s="9" t="s">
+      <c r="BY2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="BZ4" s="9" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="CA4" s="4" t="s">
+      <c r="CA2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="4" t="s">
+      <c r="CB2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="CC4" s="9" t="s">
+      <c r="CC2" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CD4" s="4" t="s">
+      <c r="CD2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="CE4" s="4" t="s">
+      <c r="CE2" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="CF4" s="7" t="s">
+      <c r="CF2" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="CG4" s="4" t="s">
+      <c r="CG2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="CH4" s="4" t="s">
+      <c r="CH2" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="CI4" s="4" t="s">
+      <c r="CI2" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="CJ4" s="4" t="s">
+      <c r="CJ2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="CK4" s="4" t="s">
+      <c r="CK2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CL4" s="4" t="s">
+      <c r="CL2" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="CM4" s="7" t="s">
+      <c r="CM2" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="CN4" s="4" t="s">
+      <c r="CN2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="CO4" s="7" t="s">
+      <c r="CO2" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="CP4" s="7" t="s">
+      <c r="CP2" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="CQ4" s="7" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="CR4" s="7" t="s">
+      <c r="CR2" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="CS4" s="7" t="s">
+      <c r="CS2" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="CT4" s="7" t="s">
+      <c r="CT2" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="CU4" s="7" t="s">
+      <c r="CU2" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="CV4" s="7" t="s">
+      <c r="CV2" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="CW4" s="8" t="s">
+      <c r="CW2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="CX4" s="8" t="s">
+      <c r="CX2" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="CY4" s="4" t="s">
+      <c r="CY2" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="CZ4" s="7" t="s">
+      <c r="CZ2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="DA4" s="7" t="s">
+      <c r="DA2" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="DB4" s="7" t="s">
+      <c r="DB2" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="DC4" s="7" t="s">
+      <c r="DC2" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="DD4" s="7" t="s">
+      <c r="DD2" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="DE4" s="7" t="s">
+      <c r="DE2" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="DF4" s="7" t="s">
+      <c r="DF2" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="DG4" s="7" t="s">
+      <c r="DG2" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="DH4" s="8" t="s">
+      <c r="DH2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="DI4" s="7" t="s">
+      <c r="DI2" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="DJ4" s="7" t="s">
+      <c r="DJ2" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="DK4" s="7" t="s">
+      <c r="DK2" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="DL4" s="7" t="s">
+      <c r="DL2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="DM4" s="4" t="s">
+      <c r="DM2" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="DN4" s="7" t="s">
+      <c r="DN2" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="DO4" s="7" t="s">
+      <c r="DO2" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="DP4" s="4" t="s">
+      <c r="DP2" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="DQ4" s="7" t="s">
+      <c r="DQ2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="DR4" s="7" t="s">
+      <c r="DR2" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="DS4" s="4" t="s">
+      <c r="DS2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="DT4" s="7" t="s">
+      <c r="DT2" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="DU4" s="5" t="s">
+      <c r="DU2" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="DV4" s="4" t="s">
+      <c r="DV2" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="DW4" s="4" t="s">
+      <c r="DW2" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="DX4" s="4" t="s">
+      <c r="DX2" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="DY4" s="4" t="s">
+      <c r="DY2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="DZ4" s="4" t="s">
+      <c r="DZ2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="EA4" s="4" t="s">
+      <c r="EA2" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="EB4" s="4" t="s">
+      <c r="EB2" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="EC4" s="4" t="s">
+      <c r="EC2" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="ED4" s="4" t="s">
+      <c r="ED2" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="EE4" s="4" t="s">
+      <c r="EE2" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="EF4" s="4" t="s">
+      <c r="EF2" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="EG4" s="4" t="s">
+      <c r="EG2" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="EH4" s="4" t="s">
+      <c r="EH2" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="EI4" s="4" t="s">
+      <c r="EI2" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="EJ4" s="4" t="s">
+      <c r="EJ2" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="EK4" s="4" t="s">
+      <c r="EK2" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="EL4" s="4" t="s">
+      <c r="EL2" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="EM4" s="4" t="s">
+      <c r="EM2" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="EN4" s="4" t="s">
+      <c r="EN2" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="EO4" s="7" t="s">
+      <c r="EO2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="EP4" s="7" t="s">
+      <c r="EP2" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="EQ4" s="4" t="s">
+      <c r="EQ2" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="ER4" s="4" t="s">
+      <c r="ER2" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="ES4" s="4" t="s">
+      <c r="ES2" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="ET4" s="4" t="s">
+      <c r="ET2" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="EU4" s="4" t="s">
+      <c r="EU2" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="EV4" s="4" t="s">
+      <c r="EV2" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="EW4" s="4" t="s">
+      <c r="EW2" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="EX4" s="4" t="s">
+      <c r="EX2" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="EY4" s="4" t="s">
+      <c r="EY2" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="EZ4" s="7" t="s">
+      <c r="EZ2" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="FA4" s="4" t="s">
+      <c r="FA2" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="FB4" s="4" t="s">
+      <c r="FB2" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="FC4" s="4" t="s">
+      <c r="FC2" s="4" t="s">
         <v>313</v>
       </c>
     </row>
